--- a/TestNGDemoFramework/src/TestData/Test_Data.xlsx
+++ b/TestNGDemoFramework/src/TestData/Test_Data.xlsx
@@ -66,19 +66,19 @@
 }</t>
   </si>
   <si>
-    <t>ReportsTest_testUsageReport</t>
-  </si>
-  <si>
     <t>User_SSA</t>
   </si>
   <si>
-    <t>ReportsTest_testBusinessAnalysisReport</t>
-  </si>
-  <si>
     <t>ReportsTest_testSurveys</t>
   </si>
   <si>
     <t>sampleTest1</t>
+  </si>
+  <si>
+    <t>sampleTest2</t>
+  </si>
+  <si>
+    <t>sampleTest3</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="2" spans="1:8" ht="153">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="3" spans="1:8" ht="153">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>13</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="4" spans="1:8" ht="65.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5" spans="1:8" ht="65.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -594,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
